--- a/TasteNFT.xlsx
+++ b/TasteNFT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>№</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Search page</t>
+  </si>
+  <si>
+    <t>В процесі</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -79,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,13 +138,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,104 +469,479 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TasteNFT.xlsx
+++ b/TasteNFT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -60,13 +60,82 @@
     <t>В процесі</t>
   </si>
   <si>
-    <t>Components</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Header</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
+    <t xml:space="preserve">   UserMiddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   UserSmall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   UserBig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ArtCard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   MainSlider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   DropList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Bid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ArtDropMenu</t>
+  </si>
+  <si>
+    <t>Components (common)</t>
+  </si>
+  <si>
+    <t>Components (modal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ProfileEdit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CreatingArt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PlaceBid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Followers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   BalanceSettings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ConnectingWallet</t>
+  </si>
+  <si>
+    <t>PageSpeed test</t>
+  </si>
+  <si>
+    <t>Real Device test</t>
+  </si>
+  <si>
+    <t>Всього:</t>
+  </si>
+  <si>
+    <t>Готово</t>
   </si>
 </sst>
 </file>
@@ -91,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +176,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,6 +229,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -430,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,9 +548,10 @@
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
     <col min="5" max="5" width="17.21875" customWidth="1"/>
     <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,483 +571,675 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="D2" s="13">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="H3" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="13"/>
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13"/>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13">
+        <f>SUM(D8:D19)</f>
+        <v>22</v>
+      </c>
+      <c r="E7" s="13">
+        <f>SUM(E8:E19)</f>
+        <v>8.25</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="5">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>7</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13">
+        <f>SUM(D21:D28)</f>
+        <v>20</v>
+      </c>
+      <c r="E20" s="13">
+        <f>SUM(E21:E28)</f>
+        <v>0</v>
+      </c>
       <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="5"/>
       <c r="F21" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="5">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E25" s="5"/>
       <c r="F25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5"/>
       <c r="F27" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>8</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13">
+        <v>7</v>
+      </c>
+      <c r="E29" s="13"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>9</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13">
+        <v>2</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="C31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="5">
+        <f>SUM(D2:D8,D20,D29,D30)</f>
+        <v>64</v>
+      </c>
+      <c r="E31" s="5">
+        <f>SUM(E2:E7,E20,E29,E30)</f>
+        <v>20.25</v>
+      </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TasteNFT.xlsx
+++ b/TasteNFT.xlsx
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="13">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>38</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="E7" s="13">
         <f>SUM(E8:E19)</f>
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
@@ -844,9 +844,11 @@
       <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4" t="s">
-        <v>12</v>
+      <c r="E18" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -873,7 +875,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="13">
         <f>SUM(D21:D28)</f>
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="E20" s="13">
         <f>SUM(E21:E28)</f>
@@ -904,7 +906,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="4" t="s">
@@ -1035,11 +1037,11 @@
       </c>
       <c r="D31" s="5">
         <f>SUM(D2:D8,D20,D29,D30)</f>
-        <v>64</v>
+        <v>64.5</v>
       </c>
       <c r="E31" s="5">
         <f>SUM(E2:E7,E20,E29,E30)</f>
-        <v>20.25</v>
+        <v>19</v>
       </c>
       <c r="F31" s="3"/>
     </row>

--- a/TasteNFT.xlsx
+++ b/TasteNFT.xlsx
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,9 +605,11 @@
       <c r="D3" s="13">
         <v>2</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
+      <c r="E3" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>38</v>
@@ -624,9 +626,11 @@
       <c r="D4" s="13">
         <v>2.5</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
+      <c r="E4" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -640,9 +644,11 @@
       <c r="D5" s="13">
         <v>1.5</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
+      <c r="E5" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -675,7 +681,7 @@
       </c>
       <c r="E7" s="13">
         <f>SUM(E8:E19)</f>
-        <v>10.5</v>
+        <v>31.78</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
@@ -739,7 +745,7 @@
         <v>0.5</v>
       </c>
       <c r="E11" s="5">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>38</v>
@@ -757,8 +763,8 @@
       <c r="E12" s="5">
         <v>1.5</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>38</v>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -770,7 +776,9 @@
       <c r="D13" s="5">
         <v>10</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>11.05</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
@@ -800,9 +808,11 @@
       <c r="D15" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4" t="s">
-        <v>12</v>
+      <c r="E15" s="5">
+        <v>3.18</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -815,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>12</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -830,9 +840,11 @@
       <c r="D17" s="5">
         <v>0.5</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4" t="s">
-        <v>12</v>
+      <c r="E17" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -860,9 +872,11 @@
       <c r="D19" s="5">
         <v>2</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4" t="s">
-        <v>12</v>
+      <c r="E19" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1041,7 +1055,7 @@
       </c>
       <c r="E31" s="5">
         <f>SUM(E2:E7,E20,E29,E30)</f>
-        <v>19</v>
+        <v>50.08</v>
       </c>
       <c r="F31" s="3"/>
     </row>

--- a/TasteNFT.xlsx
+++ b/TasteNFT.xlsx
@@ -538,7 +538,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" s="13">
         <v>8.5</v>
@@ -677,7 +677,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13">
         <f>SUM(D8:D19)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="13">
         <f>SUM(E8:E19)</f>
@@ -694,7 +694,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
@@ -889,7 +889,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="13">
         <f>SUM(D21:D28)</f>
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="E20" s="13">
         <f>SUM(E21:E28)</f>
@@ -906,7 +906,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="4" t="s">
@@ -920,7 +920,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="4" t="s">
@@ -990,7 +990,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="4" t="s">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="4" t="s">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D31" s="5">
         <f>SUM(D2:D8,D20,D29,D30)</f>
-        <v>64.5</v>
+        <v>77.5</v>
       </c>
       <c r="E31" s="5">
         <f>SUM(E2:E7,E20,E29,E30)</f>

--- a/TasteNFT.xlsx
+++ b/TasteNFT.xlsx
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -662,7 +662,9 @@
       <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13">
+        <v>0.8</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
@@ -681,7 +683,7 @@
       </c>
       <c r="E7" s="13">
         <f>SUM(E8:E19)</f>
-        <v>31.78</v>
+        <v>34.180000000000007</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
@@ -697,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="5">
-        <v>2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>38</v>
@@ -1055,7 +1057,7 @@
       </c>
       <c r="E31" s="5">
         <f>SUM(E2:E7,E20,E29,E30)</f>
-        <v>50.08</v>
+        <v>53.280000000000008</v>
       </c>
       <c r="F31" s="3"/>
     </row>

--- a/TasteNFT.xlsx
+++ b/TasteNFT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,7 +645,7 @@
         <v>1.5</v>
       </c>
       <c r="E5" s="13">
-        <v>1.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>38</v>
@@ -663,10 +663,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>1.3</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -683,10 +683,10 @@
       </c>
       <c r="E7" s="13">
         <f>SUM(E8:E19)</f>
-        <v>34.180000000000007</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>46.780000000000008</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -763,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -779,10 +779,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="5">
-        <v>11.05</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
+        <v>15.35</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -895,10 +895,10 @@
       </c>
       <c r="E20" s="13">
         <f>SUM(E21:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>12</v>
+        <v>22.210000000000004</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -910,9 +910,11 @@
       <c r="D21" s="5">
         <v>2</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4" t="s">
-        <v>12</v>
+      <c r="E21" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -924,9 +926,11 @@
       <c r="D22" s="5">
         <v>3</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4" t="s">
-        <v>12</v>
+      <c r="E22" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -938,9 +942,11 @@
       <c r="D23" s="5">
         <v>10</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4" t="s">
-        <v>12</v>
+      <c r="E23" s="5">
+        <v>4.25</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -952,9 +958,11 @@
       <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4" t="s">
-        <v>12</v>
+      <c r="E24" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -966,9 +974,11 @@
       <c r="D25" s="5">
         <v>1.5</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4" t="s">
-        <v>12</v>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -980,9 +990,11 @@
       <c r="D26" s="5">
         <v>1</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4" t="s">
-        <v>12</v>
+      <c r="E26" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -994,9 +1006,11 @@
       <c r="D27" s="5">
         <v>3</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4" t="s">
-        <v>12</v>
+      <c r="E27" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1008,9 +1022,11 @@
       <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4" t="s">
-        <v>12</v>
+      <c r="E28" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1025,9 +1041,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="13"/>
-      <c r="F29" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
@@ -1041,9 +1055,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
@@ -1057,7 +1069,7 @@
       </c>
       <c r="E31" s="5">
         <f>SUM(E2:E7,E20,E29,E30)</f>
-        <v>53.280000000000008</v>
+        <v>91.690000000000012</v>
       </c>
       <c r="F31" s="3"/>
     </row>
